--- a/day04/test.xlsx
+++ b/day04/test.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,4 +548,40 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/day04/test.xlsx
+++ b/day04/test.xlsx
@@ -7,9 +7,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1번시트3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0번시트3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1번시트2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0번시트2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1번시트1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0번시트1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1번시트" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="0번시트" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sheet7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +429,295 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +808,26 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>2*6=</t>
@@ -545,43 +867,8 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>